--- a/biology/Médecine/Parc_thermal_de_Bad_Homburg/Parc_thermal_de_Bad_Homburg.xlsx
+++ b/biology/Médecine/Parc_thermal_de_Bad_Homburg/Parc_thermal_de_Bad_Homburg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Parc thermal de Bad Homburg est le plus grand parc de la ville (44 hectares) de Bad Homburg située près de Francfort-sur-le-Main.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sources d'Élisabeth (Elisabethenbrunnen) ont été découvertes en 1834 par le docteur Eduard Christian Trapp pour ses qualités thermales, soignant les maux d'estomac et les maladies intestinales. Elles furent nommées ainsi en l'honneur de l'épouse de Frédéric VI de Hesse-Homburg, fille du roi d'Angleterre, Georges III de Hanovre.
 La gestion de l'établissement thermal est confiée à partir des années 1840 aux frères Blanc, François Blanc (fondateur du casino de Monte-Carlo) et Louis Blanc, qui y construisent un casino, une salle de bal gigantesque et les établissements de cure pour attirer une clientèle aristocratique et fortunée de toute l'Europe. Certains perdent des fortunes et Dostoïevski y perdra de fortes sommes.
